--- a/mbs-perturbation/bloated/knn/bloated-knn-results.xlsx
+++ b/mbs-perturbation/bloated/knn/bloated-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.12</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6735120083536374</v>
+        <v>0.8773059519665856</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6129481378350156</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4909502262443439</v>
+        <v>0.5267722473604828</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5916083916083916</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7664335664335664</v>
+        <v>0.5363636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.424</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.2794871794871795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1228138528138528</v>
+        <v>0.2013922518159806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6270904660949911</v>
+        <v>0.7880883671381408</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/knn/bloated-knn-results.xlsx
+++ b/mbs-perturbation/bloated/knn/bloated-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.096</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.1751824817518248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8773059519665856</v>
+        <v>0.8059701492537313</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9948175787728026</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2500000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5267722473604828</v>
+        <v>0.5691994572591588</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5363636363636364</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6228571428571429</v>
+        <v>0.6992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2794871794871795</v>
+        <v>0.4045454545454546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2013922518159806</v>
+        <v>0.322881107879187</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7880883671381408</v>
+        <v>0.7080883461480476</v>
       </c>
     </row>
   </sheetData>
